--- a/nodes_source_analyses/energy/energy_power_supercritical_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_supercritical_waste_mix.central_producer.xlsx
@@ -494,9 +494,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>energy_power_supercritical_waste_mix.central.producer.ad</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -669,15 +666,18 @@
   <si>
     <t>ETM Library URL</t>
   </si>
+  <si>
+    <t>energy_power_supercritical_waste_mix.central_producer.ad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1502,15 +1502,15 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1521,15 +1521,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1538,7 +1538,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1562,18 +1562,18 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1592,7 +1592,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2480,7 +2480,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2502,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="48" customFormat="1">
@@ -3400,10 +3402,10 @@
     <row r="43" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
       <c r="B43" s="116"/>
       <c r="C43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="117" t="s">
         <v>110</v>
-      </c>
-      <c r="D43" s="117" t="s">
-        <v>111</v>
       </c>
       <c r="E43" s="118">
         <v>113580</v>
@@ -3420,10 +3422,10 @@
     <row r="44" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
       <c r="B44" s="116"/>
       <c r="C44" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="122">
         <v>0</v>
@@ -3440,10 +3442,10 @@
     <row r="45" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
       <c r="B45" s="116"/>
       <c r="C45" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" s="123">
         <v>820080</v>
@@ -3460,10 +3462,10 @@
     <row r="46" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
       <c r="B46" s="116"/>
       <c r="C46" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" s="122">
         <v>171000</v>
@@ -3480,10 +3482,10 @@
     <row r="47" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
       <c r="B47" s="116"/>
       <c r="C47" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" s="124">
         <v>91080</v>
@@ -3657,7 +3659,7 @@
     <row r="6" spans="2:14" ht="16" thickBot="1">
       <c r="B6" s="74"/>
       <c r="C6" s="112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="77" t="s">
         <v>31</v>
@@ -3678,7 +3680,7 @@
     <row r="7" spans="2:14" ht="16" thickBot="1">
       <c r="B7" s="74"/>
       <c r="C7" s="114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="113" t="s">
         <v>106</v>
@@ -3862,7 +3864,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="79">
@@ -3902,7 +3904,7 @@
     <row r="19" spans="2:14" ht="16" thickBot="1">
       <c r="B19" s="74"/>
       <c r="C19" s="89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="76" t="s">
         <v>60</v>
@@ -3927,7 +3929,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="79">
@@ -3992,7 +3994,7 @@
         <v>104</v>
       </c>
       <c r="D23" s="126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="81">
@@ -4031,10 +4033,10 @@
     <row r="25" spans="2:14" ht="16" thickBot="1">
       <c r="B25" s="74"/>
       <c r="C25" s="128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="91"/>
       <c r="F25" s="79">
@@ -4151,13 +4153,13 @@
         <v>13</v>
       </c>
       <c r="H5" s="104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" s="104" t="s">
         <v>105</v>
       </c>
       <c r="J5" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="104" t="s">
         <v>7</v>
@@ -4198,10 +4200,10 @@
     <row r="3" spans="2:4" s="9" customFormat="1">
       <c r="B3" s="132"/>
       <c r="C3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/nodes_source_analyses/energy/energy_power_supercritical_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_supercritical_waste_mix.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -34,8 +39,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -197,9 +205,6 @@
   </si>
   <si>
     <t>Maria Tsagkaraki</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>ccs_investment</t>
@@ -669,6 +674,10 @@
   <si>
     <t>energy_power_supercritical_waste_mix.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -679,7 +688,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -799,11 +808,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1481,13 +1485,13 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1504,7 +1508,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1531,7 +1535,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1549,19 +1553,19 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1601,31 +1605,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1894,81 +1898,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
@@ -2043,7 +1982,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2478,36 +2417,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="50" customWidth="1"/>
     <col min="3" max="3" width="36" style="50" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="50"/>
+    <col min="4" max="16384" width="10.7109375" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="48" customFormat="1"/>
-    <row r="2" spans="2:3" s="48" customFormat="1" ht="20">
+    <row r="1" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="48" customFormat="1"/>
-    <row r="4" spans="2:3" s="48" customFormat="1">
+    <row r="3" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="48" customFormat="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
@@ -2515,7 +2454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="48" customFormat="1">
+    <row r="6" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
@@ -2523,18 +2462,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="48" customFormat="1"/>
-    <row r="8" spans="2:3" s="48" customFormat="1">
+    <row r="7" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="49"/>
     </row>
-    <row r="9" spans="2:3" s="48" customFormat="1">
+    <row r="9" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="46"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="2:3" s="48" customFormat="1">
+    <row r="10" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="46" t="s">
         <v>37</v>
       </c>
@@ -2542,29 +2481,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="48" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="48" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="2:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46"/>
       <c r="C12" s="52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:3" s="48" customFormat="1">
+    <row r="13" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="46"/>
       <c r="C13" s="50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:3" s="48" customFormat="1">
+    <row r="14" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="46"/>
       <c r="C14" s="50"/>
     </row>
-    <row r="15" spans="2:3" s="48" customFormat="1">
+    <row r="15" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="46" t="s">
         <v>42</v>
       </c>
@@ -2572,43 +2511,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:3" s="48" customFormat="1">
+    <row r="16" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="46"/>
       <c r="C16" s="54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="48" customFormat="1">
+    <row r="17" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="46"/>
       <c r="C17" s="55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:3" s="48" customFormat="1">
+    <row r="18" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46"/>
       <c r="C18" s="56" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:3" s="48" customFormat="1">
+    <row r="19" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="57"/>
       <c r="C19" s="58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="48" customFormat="1">
+    <row r="20" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="57"/>
       <c r="C20" s="59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:3" s="48" customFormat="1">
+    <row r="21" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="57"/>
       <c r="C21" s="60" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="48" customFormat="1">
+    <row r="22" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="57"/>
       <c r="C22" s="61" t="s">
         <v>49</v>
@@ -2617,76 +2556,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="2.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="45.125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="2.125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="46.125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="17"/>
+    <col min="1" max="2" width="2.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="133" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
       <c r="E2" s="135"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="136"/>
       <c r="C3" s="137"/>
       <c r="D3" s="137"/>
       <c r="E3" s="138"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="136"/>
       <c r="C4" s="137"/>
       <c r="D4" s="137"/>
       <c r="E4" s="138"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="139"/>
       <c r="C5" s="140"/>
       <c r="D5" s="140"/>
       <c r="E5" s="141"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="19"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2697,7 +2631,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="2:11" s="9" customFormat="1">
+    <row r="8" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -2718,7 +2652,7 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:11" s="9" customFormat="1">
+    <row r="9" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="10"/>
@@ -2729,7 +2663,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:11" s="9" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="9" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2742,7 +2676,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="29" t="s">
         <v>21</v>
@@ -2765,10 +2699,10 @@
       <c r="J11" s="22"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>31</v>
@@ -2778,7 +2712,7 @@
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
@@ -2787,10 +2721,10 @@
       <c r="J12" s="22"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>2</v>
@@ -2808,10 +2742,10 @@
       <c r="J13" s="22"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
@@ -2828,10 +2762,10 @@
       <c r="J14" s="22"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>2</v>
@@ -2848,10 +2782,10 @@
       <c r="J15" s="22"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -2868,10 +2802,10 @@
       <c r="J16" s="22"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
@@ -2888,10 +2822,10 @@
       <c r="J17" s="22"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
@@ -2908,10 +2842,10 @@
       <c r="J18" s="22"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>2</v>
@@ -2928,10 +2862,10 @@
       <c r="J19" s="22"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>2</v>
@@ -2948,10 +2882,10 @@
       <c r="J20" s="22"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>2</v>
@@ -2961,7 +2895,7 @@
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="69" t="s">
@@ -2970,10 +2904,10 @@
       <c r="J21" s="22"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
       <c r="C22" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>2</v>
@@ -2983,7 +2917,7 @@
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="69" t="s">
@@ -2992,10 +2926,10 @@
       <c r="J22" s="22"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
       <c r="C23" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>2</v>
@@ -3005,7 +2939,7 @@
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="69" t="s">
@@ -3014,10 +2948,10 @@
       <c r="J23" s="22"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="C24" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>2</v>
@@ -3027,7 +2961,7 @@
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="69" t="s">
@@ -3036,10 +2970,10 @@
       <c r="J24" s="22"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>2</v>
@@ -3049,7 +2983,7 @@
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
@@ -3058,7 +2992,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="21"/>
       <c r="C26" s="63"/>
       <c r="D26" s="6"/>
@@ -3070,7 +3004,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="C27" s="11" t="s">
         <v>28</v>
@@ -3084,13 +3018,13 @@
       <c r="J27" s="22"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
       <c r="C28" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="41">
         <f>'Research data'!F16</f>
@@ -3107,20 +3041,20 @@
       <c r="J28" s="22"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="41">
         <v>0</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="25" t="s">
@@ -3129,20 +3063,20 @@
       <c r="J29" s="22"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
       <c r="C30" s="63" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="65">
         <v>0</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="25" t="s">
@@ -3151,20 +3085,20 @@
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="21"/>
       <c r="C31" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="65">
         <v>0</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="25" t="s">
@@ -3173,20 +3107,20 @@
       <c r="J31" s="22"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="C32" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="65">
         <v>0</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="25" t="s">
@@ -3195,13 +3129,13 @@
       <c r="J32" s="22"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="2:11" ht="16" thickBot="1">
+    <row r="33" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="41">
         <f>'Research data'!F21</f>
@@ -3209,7 +3143,7 @@
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25" t="s">
@@ -3218,20 +3152,20 @@
       <c r="J33" s="22"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="2:11" ht="16" thickBot="1">
+    <row r="34" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
       <c r="C34" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="41">
         <v>0</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="25" t="s">
@@ -3240,20 +3174,20 @@
       <c r="J34" s="22"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="2:11" ht="16" thickBot="1">
+    <row r="35" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
       <c r="C35" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" s="67">
         <v>0.5</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="25" t="s">
@@ -3262,13 +3196,13 @@
       <c r="J35" s="22"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="2:11" ht="16" thickBot="1">
+    <row r="36" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21"/>
       <c r="C36" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="62">
         <v>1</v>
@@ -3282,7 +3216,7 @@
       <c r="J36" s="22"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="21"/>
       <c r="C37" s="36"/>
       <c r="D37" s="37"/>
@@ -3294,7 +3228,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="2:11" ht="16" thickBot="1">
+    <row r="38" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
       <c r="C38" s="11" t="s">
         <v>4</v>
@@ -3308,10 +3242,10 @@
       <c r="J38" s="22"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="2:11" ht="16" thickBot="1">
+    <row r="39" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
       <c r="C39" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>1</v>
@@ -3322,7 +3256,7 @@
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="25" t="s">
@@ -3331,7 +3265,7 @@
       <c r="J39" s="22"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="2:11" ht="16" thickBot="1">
+    <row r="40" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
       <c r="C40" s="64" t="s">
         <v>20</v>
@@ -3354,13 +3288,13 @@
       <c r="J40" s="22"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="2:11" ht="16" thickBot="1">
+    <row r="41" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
       <c r="C41" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E41" s="62">
         <f>'Research data'!F12</f>
@@ -3368,7 +3302,7 @@
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="25" t="s">
@@ -3377,7 +3311,7 @@
       <c r="J41" s="22"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="2:11" ht="16" thickBot="1">
+    <row r="42" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21"/>
       <c r="C42" s="34" t="s">
         <v>25</v>
@@ -3390,7 +3324,7 @@
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="25" t="s">
@@ -3399,13 +3333,13 @@
       <c r="J42" s="22"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
+    <row r="43" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="116"/>
       <c r="C43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="117" t="s">
         <v>109</v>
-      </c>
-      <c r="D43" s="117" t="s">
-        <v>110</v>
       </c>
       <c r="E43" s="118">
         <v>113580</v>
@@ -3419,13 +3353,13 @@
       <c r="J43" s="120"/>
       <c r="K43" s="121"/>
     </row>
-    <row r="44" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
+    <row r="44" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="116"/>
       <c r="C44" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="122">
         <v>0</v>
@@ -3439,13 +3373,13 @@
       <c r="J44" s="120"/>
       <c r="K44" s="121"/>
     </row>
-    <row r="45" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
+    <row r="45" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="116"/>
       <c r="C45" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" s="123">
         <v>820080</v>
@@ -3459,13 +3393,13 @@
       <c r="J45" s="120"/>
       <c r="K45" s="121"/>
     </row>
-    <row r="46" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
+    <row r="46" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="116"/>
       <c r="C46" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" s="122">
         <v>171000</v>
@@ -3479,13 +3413,13 @@
       <c r="J46" s="120"/>
       <c r="K46" s="121"/>
     </row>
-    <row r="47" spans="2:11" s="111" customFormat="1" ht="16" thickBot="1">
+    <row r="47" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="116"/>
       <c r="C47" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E47" s="124">
         <v>91080</v>
@@ -3499,7 +3433,7 @@
       <c r="J47" s="120"/>
       <c r="K47" s="121"/>
     </row>
-    <row r="48" spans="2:11" ht="16" thickBot="1">
+    <row r="48" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="23"/>
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
@@ -3517,43 +3451,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3568,26 +3465,26 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.125" style="80" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="80" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="80" customWidth="1"/>
-    <col min="5" max="5" width="3.375" style="80" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="80" customWidth="1"/>
-    <col min="7" max="7" width="2.125" style="80" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="80" customWidth="1"/>
-    <col min="9" max="9" width="2.125" style="80" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="80" customWidth="1"/>
-    <col min="11" max="11" width="2.125" style="80" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="80" customWidth="1"/>
-    <col min="13" max="13" width="2.125" style="80" customWidth="1"/>
-    <col min="14" max="14" width="70.875" style="80" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="80"/>
+    <col min="1" max="2" width="2.140625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="80" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="80" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="80" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="80" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="80" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="80" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="80" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="80" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="80" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="80" customWidth="1"/>
+    <col min="14" max="14" width="70.85546875" style="80" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="72"/>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -3602,7 +3499,7 @@
       <c r="M2" s="73"/>
       <c r="N2" s="73"/>
     </row>
-    <row r="3" spans="2:14" s="9" customFormat="1">
+    <row r="3" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3625,7 +3522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="74"/>
       <c r="C4" s="86"/>
       <c r="D4" s="108"/>
@@ -3640,7 +3537,7 @@
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
     </row>
-    <row r="5" spans="2:14" ht="16" thickBot="1">
+    <row r="5" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="74"/>
       <c r="C5" s="11" t="s">
         <v>27</v>
@@ -3656,10 +3553,10 @@
       <c r="M5" s="66"/>
       <c r="N5" s="63"/>
     </row>
-    <row r="6" spans="2:14" ht="16" thickBot="1">
+    <row r="6" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="74"/>
       <c r="C6" s="112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="77" t="s">
         <v>31</v>
@@ -3677,13 +3574,13 @@
       <c r="M6" s="66"/>
       <c r="N6" s="63"/>
     </row>
-    <row r="7" spans="2:14" ht="16" thickBot="1">
+    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="74"/>
       <c r="C7" s="114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="115">
@@ -3698,7 +3595,7 @@
       <c r="M7" s="66"/>
       <c r="N7" s="63"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="74"/>
       <c r="C8" s="75"/>
       <c r="D8" s="78"/>
@@ -3713,7 +3610,7 @@
       <c r="M8" s="66"/>
       <c r="N8" s="83"/>
     </row>
-    <row r="9" spans="2:14" ht="16" thickBot="1">
+    <row r="9" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="74"/>
       <c r="C9" s="11" t="s">
         <v>4</v>
@@ -3730,7 +3627,7 @@
       <c r="M9" s="66"/>
       <c r="N9" s="63"/>
     </row>
-    <row r="10" spans="2:14" ht="16" thickBot="1">
+    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74"/>
       <c r="C10" s="76" t="s">
         <v>17</v>
@@ -3751,10 +3648,10 @@
       <c r="M10" s="66"/>
       <c r="N10" s="82"/>
     </row>
-    <row r="11" spans="2:14" ht="16" thickBot="1">
+    <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74"/>
       <c r="C11" s="76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="77" t="s">
         <v>1</v>
@@ -3772,13 +3669,13 @@
       <c r="M11" s="66"/>
       <c r="N11" s="82"/>
     </row>
-    <row r="12" spans="2:14" ht="16" thickBot="1">
+    <row r="12" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="74"/>
       <c r="C12" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="109">
@@ -3793,7 +3690,7 @@
       <c r="M12" s="66"/>
       <c r="N12" s="82"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="74"/>
       <c r="G13" s="66"/>
       <c r="H13" s="88"/>
@@ -3804,7 +3701,7 @@
       <c r="M13" s="66"/>
       <c r="N13" s="63"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="74"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -3819,7 +3716,7 @@
       <c r="M14" s="66"/>
       <c r="N14" s="63"/>
     </row>
-    <row r="15" spans="2:14" ht="16" thickBot="1">
+    <row r="15" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="74"/>
       <c r="C15" s="11" t="s">
         <v>30</v>
@@ -3836,13 +3733,13 @@
       <c r="M15" s="66"/>
       <c r="N15" s="63"/>
     </row>
-    <row r="16" spans="2:14" ht="16" thickBot="1">
+    <row r="16" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="74"/>
       <c r="C16" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="75"/>
       <c r="F16" s="79">
@@ -3858,13 +3755,13 @@
       <c r="M16" s="66"/>
       <c r="N16" s="63"/>
     </row>
-    <row r="17" spans="2:14" ht="16" thickBot="1">
+    <row r="17" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="74"/>
       <c r="C17" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="79">
@@ -3879,13 +3776,13 @@
       <c r="M17" s="66"/>
       <c r="N17" s="63"/>
     </row>
-    <row r="18" spans="2:14" ht="16" thickBot="1">
+    <row r="18" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="74"/>
       <c r="C18" s="125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="79">
@@ -3901,13 +3798,13 @@
       <c r="M18" s="66"/>
       <c r="N18" s="63"/>
     </row>
-    <row r="19" spans="2:14" ht="16" thickBot="1">
+    <row r="19" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="74"/>
       <c r="C19" s="89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="90"/>
       <c r="F19" s="79">
@@ -3923,13 +3820,13 @@
       <c r="M19" s="66"/>
       <c r="N19" s="63"/>
     </row>
-    <row r="20" spans="2:14" ht="16" thickBot="1">
+    <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
       <c r="C20" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="79">
@@ -3944,13 +3841,13 @@
       <c r="M20" s="66"/>
       <c r="N20" s="83"/>
     </row>
-    <row r="21" spans="2:14" ht="16" thickBot="1">
+    <row r="21" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="74"/>
       <c r="C21" s="89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="90"/>
       <c r="F21" s="81">
@@ -3966,13 +3863,13 @@
       <c r="M21" s="66"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" ht="16" thickBot="1">
+    <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="81">
@@ -3988,13 +3885,13 @@
       <c r="M22" s="66"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" ht="16" thickBot="1">
+    <row r="23" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="81">
@@ -4009,13 +3906,13 @@
       <c r="M23" s="66"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:14" ht="16" thickBot="1">
+    <row r="24" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="79">
@@ -4030,13 +3927,13 @@
       <c r="M24" s="66"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" ht="16" thickBot="1">
+    <row r="25" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="127" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="91"/>
       <c r="F25" s="79">
@@ -4065,11 +3962,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4084,22 +3976,22 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="93" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="93" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="93" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="93" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="93" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="93" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="93" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="94" customWidth="1"/>
-    <col min="11" max="11" width="105.5" style="93" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="93"/>
+    <col min="1" max="1" width="7.28515625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="93" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="93" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="93" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="93" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="94" customWidth="1"/>
+    <col min="11" max="11" width="105.42578125" style="93" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="95"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
@@ -4111,7 +4003,7 @@
       <c r="J2" s="97"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="98"/>
       <c r="C3" s="99" t="s">
         <v>11</v>
@@ -4125,7 +4017,7 @@
       <c r="J3" s="100"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="101"/>
       <c r="D4" s="101"/>
@@ -4137,7 +4029,7 @@
       <c r="J4" s="102"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="103"/>
       <c r="C5" s="104" t="s">
         <v>12</v>
@@ -4153,13 +4045,13 @@
         <v>13</v>
       </c>
       <c r="H5" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="105" t="s">
         <v>123</v>
-      </c>
-      <c r="I5" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="105" t="s">
-        <v>124</v>
       </c>
       <c r="K5" s="104" t="s">
         <v>7</v>
@@ -4168,11 +4060,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4184,34 +4071,29 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="129" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="129" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="129"/>
+    <col min="1" max="1" width="7.5703125" style="129" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="129" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="129"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16" thickBot="1"/>
-    <row r="2" spans="2:4">
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="130"/>
       <c r="C2" s="131"/>
       <c r="D2" s="131"/>
     </row>
-    <row r="3" spans="2:4" s="9" customFormat="1">
+    <row r="3" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="132"/>
       <c r="C3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_supercritical_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_supercritical_waste_mix.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD1E76-D953-3646-A28D-EB7C149DE6CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -39,7 +40,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
   <si>
     <t>Source</t>
   </si>
@@ -301,21 +302,6 @@
   </si>
   <si>
     <t>heat_output_capacity</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
   </si>
   <si>
     <r>
@@ -341,129 +327,6 @@
   </si>
   <si>
     <t>yes=1, no=0</t>
-  </si>
-  <si>
-    <r>
-      <t>Probability that two peaks fall in the same time in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>summer day</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Probability that two peaks fal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the same time in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the summer evining</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the same time in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the winter day</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the same time in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the winter evining</t>
-    </r>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t xml:space="preserve">         Initial investment costs per unit</t>
@@ -682,13 +545,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1427,7 +1290,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1462,7 +1325,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1515,7 +1377,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1901,6 +1762,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2415,141 +2279,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="36" style="50" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="50"/>
+    <col min="1" max="1" width="2.1640625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="49" customWidth="1"/>
+    <col min="3" max="3" width="36" style="49" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:3" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:3" s="47" customFormat="1"/>
+    <row r="2" spans="2:3" s="47" customFormat="1" ht="21">
+      <c r="B2" s="43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
+    <row r="3" spans="2:3" s="47" customFormat="1"/>
+    <row r="4" spans="2:3" s="47" customFormat="1">
+      <c r="B4" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="47" customFormat="1">
       <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" s="47" customFormat="1">
       <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="45" t="s">
+    <row r="7" spans="2:3" s="47" customFormat="1"/>
+    <row r="8" spans="2:3" s="47" customFormat="1">
+      <c r="B8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="49"/>
-    </row>
-    <row r="9" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
-      <c r="C9" s="50"/>
-    </row>
-    <row r="10" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46" t="s">
+      <c r="C8" s="48"/>
+    </row>
+    <row r="9" spans="2:3" s="47" customFormat="1">
+      <c r="B9" s="45"/>
+      <c r="C9" s="49"/>
+    </row>
+    <row r="10" spans="2:3" s="47" customFormat="1">
+      <c r="B10" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
+    <row r="11" spans="2:3" s="47" customFormat="1" ht="17" thickBot="1">
+      <c r="B11" s="45"/>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="52" t="s">
+    <row r="12" spans="2:3" s="47" customFormat="1" ht="17" thickBot="1">
+      <c r="B12" s="45"/>
+      <c r="C12" s="51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46"/>
-      <c r="C13" s="50" t="s">
+    <row r="13" spans="2:3" s="47" customFormat="1">
+      <c r="B13" s="45"/>
+      <c r="C13" s="49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="50"/>
-    </row>
-    <row r="15" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="46" t="s">
+    <row r="14" spans="2:3" s="47" customFormat="1">
+      <c r="B14" s="45"/>
+      <c r="C14" s="49"/>
+    </row>
+    <row r="15" spans="2:3" s="47" customFormat="1">
+      <c r="B15" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="46"/>
-      <c r="C16" s="54" t="s">
+    <row r="16" spans="2:3" s="47" customFormat="1">
+      <c r="B16" s="45"/>
+      <c r="C16" s="53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="46"/>
-      <c r="C17" s="55" t="s">
+    <row r="17" spans="2:3" s="47" customFormat="1">
+      <c r="B17" s="45"/>
+      <c r="C17" s="54" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="46"/>
-      <c r="C18" s="56" t="s">
+    <row r="18" spans="2:3" s="47" customFormat="1">
+      <c r="B18" s="45"/>
+      <c r="C18" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58" t="s">
+    <row r="19" spans="2:3" s="47" customFormat="1">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="57"/>
-      <c r="C20" s="59" t="s">
+    <row r="20" spans="2:3" s="47" customFormat="1">
+      <c r="B20" s="56"/>
+      <c r="C20" s="58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="57"/>
-      <c r="C21" s="60" t="s">
+    <row r="21" spans="2:3" s="47" customFormat="1">
+      <c r="B21" s="56"/>
+      <c r="C21" s="59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="57"/>
-      <c r="C22" s="61" t="s">
+    <row r="22" spans="2:3" s="47" customFormat="1">
+      <c r="B22" s="56"/>
+      <c r="C22" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2560,67 +2424,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K48"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A21" sqref="A21:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="17"/>
+    <col min="1" max="2" width="2.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="133" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="43"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="43"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="136"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="43"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="139"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="43"/>
-    </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16" customHeight="1">
+      <c r="B2" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="19"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2631,12 +2495,12 @@
       <c r="I7" s="5"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" s="9" customFormat="1">
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2652,7 +2516,7 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" s="9" customFormat="1">
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="10"/>
@@ -2663,7 +2527,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:11" s="9" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="9" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2676,15 +2540,15 @@
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="21"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <f>'Research data'!F6</f>
         <v>55.56</v>
       </c>
@@ -2699,20 +2563,20 @@
       <c r="J11" s="22"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="21"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="61">
         <v>0</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="63" t="s">
-        <v>88</v>
+      <c r="G12" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
@@ -2721,269 +2585,252 @@
       <c r="J12" s="22"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="21"/>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="64">
         <f>'Research data'!F7/100</f>
         <v>0.25</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="63"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="68" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="64">
         <v>0</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="63"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="68" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="21"/>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="64">
         <v>0.9</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="63"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="68" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="21"/>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="67">
         <v>1</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="63"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="68" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="21"/>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="67">
         <v>0</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="63"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="68" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="21"/>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="108" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="67">
         <v>0</v>
       </c>
       <c r="F18" s="24"/>
-      <c r="G18" s="63"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="68" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="21"/>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="67">
         <v>0.1</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="63"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="69" t="s">
+      <c r="I19" s="68" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="21"/>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>81</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="67">
         <v>0.7</v>
       </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="63"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="68" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="21"/>
-      <c r="C21" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="65">
-        <v>-0.75</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="69" t="s">
-        <v>24</v>
-      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="22"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="21"/>
-      <c r="C22" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="65">
-        <v>-0.75</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="69" t="s">
-        <v>24</v>
-      </c>
+      <c r="C22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="22"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="21"/>
-      <c r="C23" s="63" t="s">
-        <v>85</v>
+      <c r="C23" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="65">
-        <v>-0.75</v>
+        <v>58</v>
+      </c>
+      <c r="E23" s="40">
+        <f>'Research data'!F16</f>
+        <v>250020000</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="63" t="s">
-        <v>92</v>
+      <c r="G23" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="25" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="21"/>
-      <c r="C24" s="63" t="s">
-        <v>86</v>
+      <c r="C24" s="62" t="s">
+        <v>51</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="65">
-        <v>-0.75</v>
+        <v>58</v>
+      </c>
+      <c r="E24" s="40">
+        <v>0</v>
       </c>
       <c r="F24" s="24"/>
-      <c r="G24" s="63" t="s">
-        <v>93</v>
+      <c r="G24" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="25" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="21"/>
-      <c r="C25" s="63" t="s">
-        <v>87</v>
+      <c r="C25" s="62" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="26">
-        <v>16.690000000000001</v>
+        <v>58</v>
+      </c>
+      <c r="E25" s="64">
+        <v>0</v>
       </c>
       <c r="F25" s="24"/>
-      <c r="G25" s="71" t="s">
-        <v>94</v>
+      <c r="G25" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
@@ -2992,47 +2839,65 @@
       <c r="J25" s="22"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="21"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="C26" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="64">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="21"/>
-      <c r="C27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="18"/>
+      <c r="C27" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="64">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="J27" s="22"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="21"/>
-      <c r="C28" s="63" t="s">
-        <v>22</v>
+      <c r="C28" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="41">
-        <f>'Research data'!F16</f>
-        <v>250020000</v>
+        <v>60</v>
+      </c>
+      <c r="E28" s="40">
+        <f>'Research data'!F21</f>
+        <v>64.999643999999989</v>
       </c>
       <c r="F28" s="24"/>
-      <c r="G28" s="24" t="s">
-        <v>16</v>
+      <c r="G28" s="62" t="s">
+        <v>63</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="25" t="s">
@@ -3041,20 +2906,20 @@
       <c r="J28" s="22"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="21"/>
-      <c r="C29" s="63" t="s">
-        <v>51</v>
+      <c r="C29" s="62" t="s">
+        <v>55</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="41">
+        <v>60</v>
+      </c>
+      <c r="E29" s="40">
         <v>0</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="63" t="s">
-        <v>65</v>
+      <c r="G29" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="25" t="s">
@@ -3063,20 +2928,20 @@
       <c r="J29" s="22"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="21"/>
       <c r="C30" s="63" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="65">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="E30" s="66">
+        <v>0.5</v>
       </c>
       <c r="F30" s="24"/>
-      <c r="G30" s="63" t="s">
-        <v>66</v>
+      <c r="G30" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="25" t="s">
@@ -3085,21 +2950,19 @@
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="21"/>
-      <c r="C31" s="63" t="s">
-        <v>52</v>
+      <c r="C31" s="62" t="s">
+        <v>79</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="65">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="E31" s="61">
+        <v>1</v>
       </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="63" t="s">
-        <v>61</v>
-      </c>
+      <c r="G31" s="62"/>
       <c r="H31" s="24"/>
       <c r="I31" s="25" t="s">
         <v>24</v>
@@ -3107,65 +2970,47 @@
       <c r="J31" s="22"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="B32" s="21"/>
-      <c r="C32" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="65">
-        <v>0</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="s">
-        <v>24</v>
-      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="22"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="17" thickBot="1">
       <c r="B33" s="21"/>
-      <c r="C33" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="41">
-        <f>'Research data'!F21</f>
-        <v>64.999643999999989</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25" t="s">
-        <v>24</v>
-      </c>
+      <c r="C33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="22"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="17" thickBot="1">
       <c r="B34" s="21"/>
       <c r="C34" s="63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="41">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="69">
+        <f>'Research data'!F11</f>
+        <v>3.5</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="63" t="s">
-        <v>64</v>
+      <c r="G34" s="62" t="s">
+        <v>67</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="25" t="s">
@@ -3174,20 +3019,21 @@
       <c r="J34" s="22"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="17" thickBot="1">
       <c r="B35" s="21"/>
-      <c r="C35" s="64" t="s">
-        <v>57</v>
+      <c r="C35" s="63" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="67">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="83">
+        <f>'Research data'!F10</f>
+        <v>20</v>
       </c>
       <c r="F35" s="24"/>
-      <c r="G35" s="24" t="s">
-        <v>68</v>
+      <c r="G35" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="25" t="s">
@@ -3196,19 +3042,22 @@
       <c r="J35" s="22"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="17" thickBot="1">
       <c r="B36" s="21"/>
-      <c r="C36" s="63" t="s">
-        <v>79</v>
+      <c r="C36" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="62">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="E36" s="61">
+        <f>'Research data'!F12</f>
+        <v>0.3</v>
       </c>
       <c r="F36" s="24"/>
-      <c r="G36" s="63"/>
+      <c r="G36" s="62" t="s">
+        <v>72</v>
+      </c>
       <c r="H36" s="24"/>
       <c r="I36" s="25" t="s">
         <v>24</v>
@@ -3216,234 +3065,139 @@
       <c r="J36" s="22"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" ht="17" thickBot="1">
       <c r="B37" s="21"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="C37" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="41">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="J37" s="22"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
-      <c r="C38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="70">
-        <f>'Research data'!F11</f>
-        <v>3.5</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="24"/>
+    <row r="38" spans="2:11" s="109" customFormat="1" ht="17" thickBot="1">
+      <c r="B38" s="114"/>
+      <c r="C38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="116">
+        <v>113580</v>
+      </c>
+      <c r="F38" s="117"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="118"/>
+      <c r="K38" s="119"/>
+    </row>
+    <row r="39" spans="2:11" s="109" customFormat="1" ht="17" thickBot="1">
+      <c r="B39" s="114"/>
+      <c r="C39" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="120">
+        <v>0</v>
+      </c>
+      <c r="F39" s="117"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
       <c r="I39" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
-      <c r="C40" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="85">
-        <f>'Research data'!F10</f>
-        <v>20</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="24"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="119"/>
+    </row>
+    <row r="40" spans="2:11" s="109" customFormat="1" ht="17" thickBot="1">
+      <c r="B40" s="114"/>
+      <c r="C40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="121">
+        <v>820080</v>
+      </c>
+      <c r="F40" s="117"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
       <c r="I40" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
-      <c r="C41" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="62">
-        <f>'Research data'!F12</f>
-        <v>0.3</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" s="24"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="119"/>
+    </row>
+    <row r="41" spans="2:11" s="109" customFormat="1" ht="17" thickBot="1">
+      <c r="B41" s="114"/>
+      <c r="C41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="120">
+        <v>171000</v>
+      </c>
+      <c r="F41" s="117"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
       <c r="I41" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
-      <c r="C42" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="24"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="119"/>
+    </row>
+    <row r="42" spans="2:11" s="109" customFormat="1" ht="17" thickBot="1">
+      <c r="B42" s="114"/>
+      <c r="C42" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="122">
+        <v>91080</v>
+      </c>
+      <c r="F42" s="117"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
       <c r="I42" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="116"/>
-      <c r="C43" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="118">
-        <v>113580</v>
-      </c>
-      <c r="F43" s="119"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="120"/>
-      <c r="K43" s="121"/>
-    </row>
-    <row r="44" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="116"/>
-      <c r="C44" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="122">
-        <v>0</v>
-      </c>
-      <c r="F44" s="119"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="120"/>
-      <c r="K44" s="121"/>
-    </row>
-    <row r="45" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="116"/>
-      <c r="C45" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="123">
-        <v>820080</v>
-      </c>
-      <c r="F45" s="119"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="120"/>
-      <c r="K45" s="121"/>
-    </row>
-    <row r="46" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="116"/>
-      <c r="C46" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="122">
-        <v>171000</v>
-      </c>
-      <c r="F46" s="119"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="120"/>
-      <c r="K46" s="121"/>
-    </row>
-    <row r="47" spans="2:11" s="111" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="116"/>
-      <c r="C47" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="124">
-        <v>91080</v>
-      </c>
-      <c r="F47" s="119"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="120"/>
-      <c r="K47" s="121"/>
-    </row>
-    <row r="48" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="14"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="119"/>
+    </row>
+    <row r="43" spans="2:11" ht="17" thickBot="1">
+      <c r="B43" s="23"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3455,8 +3209,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:N25"/>
@@ -3465,41 +3219,41 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.140625" style="80" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="80" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="80" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="80" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="80" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" style="80" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="80" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" style="80" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="80" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" style="80" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="80" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="80" customWidth="1"/>
-    <col min="14" max="14" width="70.85546875" style="80" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="80"/>
+    <col min="1" max="2" width="2.1640625" style="78" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" style="78" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="78" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="78" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="78" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" style="78" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="78" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="78" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="78" customWidth="1"/>
+    <col min="11" max="11" width="2.1640625" style="78" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="78" customWidth="1"/>
+    <col min="13" max="13" width="2.1640625" style="78" customWidth="1"/>
+    <col min="14" max="14" width="70.83203125" style="78" customWidth="1"/>
+    <col min="15" max="16384" width="10.6640625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+    <row r="1" spans="2:14" ht="17" thickBot="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-    </row>
-    <row r="3" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+    </row>
+    <row r="3" spans="2:14" s="9" customFormat="1">
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3522,431 +3276,431 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="74"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-    </row>
-    <row r="5" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
+    <row r="4" spans="2:14">
+      <c r="B4" s="72"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+    </row>
+    <row r="5" spans="2:14" ht="17" thickBot="1">
+      <c r="B5" s="72"/>
       <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="63"/>
-    </row>
-    <row r="6" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="74"/>
-      <c r="C6" s="112" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="77" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="62"/>
+    </row>
+    <row r="6" spans="2:14" ht="17" thickBot="1">
+      <c r="B6" s="72"/>
+      <c r="C6" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="107">
+      <c r="E6" s="76"/>
+      <c r="F6" s="105">
         <v>55.56</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="63"/>
-    </row>
-    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="74"/>
-      <c r="C7" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="113" t="s">
-        <v>105</v>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="62"/>
+    </row>
+    <row r="7" spans="2:14" ht="17" thickBot="1">
+      <c r="B7" s="72"/>
+      <c r="C7" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>95</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="115">
+      <c r="F7" s="113">
         <v>25</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="63"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="83"/>
-    </row>
-    <row r="9" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="74"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="62"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="81"/>
+    </row>
+    <row r="9" spans="2:14" ht="17" thickBot="1">
+      <c r="B9" s="72"/>
       <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="63"/>
-    </row>
-    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="74"/>
-      <c r="C10" s="76" t="s">
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="62"/>
+    </row>
+    <row r="10" spans="2:14" ht="17" thickBot="1">
+      <c r="B10" s="72"/>
+      <c r="C10" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79">
+      <c r="E10" s="76"/>
+      <c r="F10" s="77">
         <v>20</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="82"/>
-    </row>
-    <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="74"/>
-      <c r="C11" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="77" t="s">
+      <c r="G10" s="65"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="80"/>
+    </row>
+    <row r="11" spans="2:14" ht="17" thickBot="1">
+      <c r="B11" s="72"/>
+      <c r="C11" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="81">
+      <c r="E11" s="76"/>
+      <c r="F11" s="79">
         <v>3.5</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="82"/>
-    </row>
-    <row r="12" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="77" t="s">
+      <c r="G11" s="65"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="80"/>
+    </row>
+    <row r="12" spans="2:14" ht="17" thickBot="1">
+      <c r="B12" s="72"/>
+      <c r="C12" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="109">
+      <c r="E12" s="76"/>
+      <c r="F12" s="107">
         <v>0.3</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="82"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="74"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="63"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="74"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="80"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="72"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="62"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="72"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="63"/>
-    </row>
-    <row r="15" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="74"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="62"/>
+    </row>
+    <row r="15" spans="2:14" ht="17" thickBot="1">
+      <c r="B15" s="72"/>
       <c r="C15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="63"/>
-    </row>
-    <row r="16" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="74"/>
-      <c r="C16" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="76" t="s">
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="62"/>
+    </row>
+    <row r="16" spans="2:14" ht="17" thickBot="1">
+      <c r="B16" s="72"/>
+      <c r="C16" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="79">
+      <c r="E16" s="73"/>
+      <c r="F16" s="77">
         <f>F17*F6*1000</f>
         <v>250020000</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="63"/>
-    </row>
-    <row r="17" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="74"/>
-      <c r="C17" s="76" t="s">
+      <c r="G16" s="65"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="62"/>
+    </row>
+    <row r="17" spans="2:14" ht="17" thickBot="1">
+      <c r="B17" s="72"/>
+      <c r="C17" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="126" t="s">
-        <v>118</v>
+      <c r="D17" s="124" t="s">
+        <v>108</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="79">
+      <c r="F17" s="77">
         <v>4500</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="63"/>
-    </row>
-    <row r="18" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
-      <c r="C18" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="76" t="s">
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="62"/>
+    </row>
+    <row r="18" spans="2:14" ht="17" thickBot="1">
+      <c r="B18" s="72"/>
+      <c r="C18" s="123" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="74" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="79">
+      <c r="F18" s="77">
         <f>F19+F22</f>
         <v>246998.64719999995</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="63"/>
-    </row>
-    <row r="19" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="74"/>
-      <c r="C19" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="76" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="62"/>
+    </row>
+    <row r="19" spans="2:14" ht="17" thickBot="1">
+      <c r="B19" s="72"/>
+      <c r="C19" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="79">
+      <c r="E19" s="88"/>
+      <c r="F19" s="77">
         <f>F20*F6*1000</f>
         <v>0</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="63"/>
-    </row>
-    <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="74"/>
-      <c r="C20" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="79">
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="62"/>
+    </row>
+    <row r="20" spans="2:14" ht="17" thickBot="1">
+      <c r="B20" s="72"/>
+      <c r="C20" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="77">
         <v>0</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="83"/>
-    </row>
-    <row r="21" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="74"/>
-      <c r="C21" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="77" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="81"/>
+    </row>
+    <row r="21" spans="2:14" ht="17" thickBot="1">
+      <c r="B21" s="72"/>
+      <c r="C21" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="81">
+      <c r="E21" s="88"/>
+      <c r="F21" s="79">
         <f>F23*F25/F24</f>
         <v>64.999643999999989</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="74"/>
-      <c r="C22" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="77" t="s">
+    <row r="22" spans="2:14" ht="17" thickBot="1">
+      <c r="B22" s="72"/>
+      <c r="C22" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="81">
+      <c r="E22" s="89"/>
+      <c r="F22" s="79">
         <f>F21*F24</f>
         <v>246998.64719999995</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="74"/>
-      <c r="C23" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="126" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="81">
+    <row r="23" spans="2:14" ht="17" thickBot="1">
+      <c r="B23" s="72"/>
+      <c r="C23" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="89"/>
+      <c r="F23" s="79">
         <v>1.1698999999999999</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="74"/>
-      <c r="C24" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="79">
+    <row r="24" spans="2:14" ht="17" thickBot="1">
+      <c r="B24" s="72"/>
+      <c r="C24" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="89"/>
+      <c r="F24" s="77">
         <v>3800</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="74"/>
-      <c r="C25" s="128" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="79">
+    <row r="25" spans="2:14" ht="17" thickBot="1">
+      <c r="B25" s="72"/>
+      <c r="C25" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="89"/>
+      <c r="F25" s="77">
         <f>F24*F6</f>
         <v>211128</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
       <c r="N25" s="6"/>
     </row>
   </sheetData>
@@ -3966,8 +3720,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K5"/>
@@ -3976,84 +3730,84 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="93" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="93" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="93" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="93" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="93" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="94" customWidth="1"/>
-    <col min="11" max="11" width="105.42578125" style="93" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="93"/>
+    <col min="1" max="1" width="7.33203125" style="91" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="91" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="91" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="91" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="91" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="91" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="91" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="92" customWidth="1"/>
+    <col min="11" max="11" width="105.5" style="91" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="96"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="96"/>
+      <c r="C3" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="98"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="101"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="103"/>
-      <c r="C5" s="104" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="96"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="99"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104" t="s">
+      <c r="D5" s="102"/>
+      <c r="E5" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="104" t="s">
+      <c r="H5" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="102" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4064,33 +3818,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="129" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="129" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="129"/>
+    <col min="1" max="1" width="7.5" style="127" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="127" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-    </row>
-    <row r="3" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="132"/>
+    <row r="1" spans="2:4" ht="17" thickBot="1"/>
+    <row r="2" spans="2:4">
+      <c r="B2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+    </row>
+    <row r="3" spans="2:4" s="9" customFormat="1">
+      <c r="B3" s="130"/>
       <c r="C3" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/nodes_source_analyses/energy/energy_power_supercritical_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_supercritical_waste_mix.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD1E76-D953-3646-A28D-EB7C149DE6CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFC30E3-EF3C-F54F-BCFC-B563DE414D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,10 +40,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t>Source</t>
   </si>
@@ -541,6 +547,9 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -551,7 +560,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -709,6 +718,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1290,7 +1305,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1493,6 +1508,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="261">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2287,12 +2303,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="49" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="49" customWidth="1"/>
     <col min="3" max="3" width="36" style="49" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="49"/>
+    <col min="4" max="16384" width="10.7109375" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" s="47" customFormat="1"/>
@@ -2431,21 +2447,21 @@
   <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD25"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="46.1640625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="17"/>
+    <col min="1" max="2" width="2.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2937,15 +2953,15 @@
         <v>95</v>
       </c>
       <c r="E30" s="66">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H30" s="24"/>
-      <c r="I30" s="25" t="s">
-        <v>24</v>
+      <c r="I30" s="140" t="s">
+        <v>116</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
@@ -3219,22 +3235,22 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.1640625" style="78" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" style="78" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="78" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="78" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="78" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" style="78" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="78" customWidth="1"/>
-    <col min="9" max="9" width="2.1640625" style="78" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="78" customWidth="1"/>
-    <col min="11" max="11" width="2.1640625" style="78" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="78" customWidth="1"/>
-    <col min="13" max="13" width="2.1640625" style="78" customWidth="1"/>
-    <col min="14" max="14" width="70.83203125" style="78" customWidth="1"/>
-    <col min="15" max="16384" width="10.6640625" style="78"/>
+    <col min="1" max="2" width="2.140625" style="78" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="78" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="78" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="78" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="78" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="78" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="78" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="78" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="78" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="78" customWidth="1"/>
+    <col min="14" max="14" width="70.85546875" style="78" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
@@ -3730,18 +3746,18 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="91" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="91" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="91" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="91" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="91" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="91" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="91" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="92" customWidth="1"/>
-    <col min="11" max="11" width="105.5" style="91" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="91"/>
+    <col min="1" max="1" width="7.28515625" style="91" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="91" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="91" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="91" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="91" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="91" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="91" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="92" customWidth="1"/>
+    <col min="11" max="11" width="105.42578125" style="91" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -3825,11 +3841,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="127" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="127" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="127"/>
+    <col min="1" max="1" width="7.42578125" style="127" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="127" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="17" thickBot="1"/>
